--- a/storage/app/PlanContract/36/2022/Планируемые договоры.xlsx
+++ b/storage/app/PlanContract/36/2022/Планируемые договоры.xlsx
@@ -5,22 +5,36 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aleksey.rakhmanov/Desktop/АО НПП Пульсар/2022/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aleksey.rakhmanov/Desktop/projects/pulsar_project/PulsarDataAggregation/storage/app/PlanContract/36/2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1BB99DC-0925-F945-A6F5-4229FA73EF66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47EEDFF2-04C2-E142-A275-FE085AE3F991}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4840" yWindow="500" windowWidth="29880" windowHeight="12800" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="880" windowWidth="31140" windowHeight="20800" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TDSheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TDSheet!$A$1:$D$148</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="62">
   <si>
     <t>Подразделение</t>
   </si>
@@ -265,7 +279,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -284,6 +298,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -627,15 +644,15 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D148"/>
+  <dimension ref="A1:F148"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="11.5" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="74.75" style="1" customWidth="1"/>
+    <col min="1" max="1" width="56.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.25" style="1" customWidth="1"/>
     <col min="3" max="3" width="14.75" style="1" customWidth="1"/>
     <col min="4" max="4" width="17.5" style="1" customWidth="1"/>
@@ -2350,8 +2367,8 @@
       <c r="B123" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C123" s="3" t="s">
-        <v>50</v>
+      <c r="C123" s="7">
+        <v>44905</v>
       </c>
       <c r="D123" s="4">
         <v>12306.88</v>
@@ -2651,7 +2668,7 @@
         <v>30729.599999999999</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" s="3" t="s">
         <v>4</v>
       </c>
@@ -2665,7 +2682,7 @@
         <v>23512.799999999999</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A146" s="3" t="s">
         <v>4</v>
       </c>
@@ -2679,7 +2696,7 @@
         <v>21417.599999999999</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="11" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:6" ht="11" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A147" s="3" t="s">
         <v>3</v>
       </c>
@@ -2693,11 +2710,19 @@
         <v>69539.759999999995</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" s="6"/>
       <c r="B148" s="6"/>
       <c r="C148" s="6"/>
       <c r="D148" s="6"/>
+      <c r="E148">
+        <f>SUBTOTAL(9,D2:D147)</f>
+        <v>55853098.24000001</v>
+      </c>
+      <c r="F148">
+        <f>E148/1000</f>
+        <v>55853.098240000007</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/storage/app/PlanContract/36/2022/Планируемые договоры.xlsx
+++ b/storage/app/PlanContract/36/2022/Планируемые договоры.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aleksey.rakhmanov/Desktop/projects/pulsar_project/PulsarDataAggregation/storage/app/PlanContract/36/2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47EEDFF2-04C2-E142-A275-FE085AE3F991}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AE4C945-02FF-9F48-9106-E10D2842C556}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3120" yWindow="880" windowWidth="31140" windowHeight="20800" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,9 +16,9 @@
     <sheet name="TDSheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TDSheet!$A$1:$D$148</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TDSheet!$A$1:$D$147</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="66">
   <si>
     <t>Подразделение</t>
   </si>
@@ -220,6 +220,18 @@
   </si>
   <si>
     <t>НО № 5 - ИЦ</t>
+  </si>
+  <si>
+    <t>17.12.2022</t>
+  </si>
+  <si>
+    <t>21.12.2022</t>
+  </si>
+  <si>
+    <t>23.09.2022</t>
+  </si>
+  <si>
+    <t>06.12.2022</t>
   </si>
 </sst>
 </file>
@@ -279,7 +291,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -295,9 +307,6 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -644,10 +653,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F148"/>
+  <dimension ref="A1:D154"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" topLeftCell="A135" workbookViewId="0">
+      <selection activeCell="D162" sqref="D162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="11.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2367,7 +2376,7 @@
       <c r="B123" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C123" s="7">
+      <c r="C123" s="6">
         <v>44905</v>
       </c>
       <c r="D123" s="4">
@@ -2668,7 +2677,7 @@
         <v>30729.599999999999</v>
       </c>
     </row>
-    <row r="145" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" s="3" t="s">
         <v>4</v>
       </c>
@@ -2682,7 +2691,7 @@
         <v>23512.799999999999</v>
       </c>
     </row>
-    <row r="146" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A146" s="3" t="s">
         <v>4</v>
       </c>
@@ -2696,7 +2705,7 @@
         <v>21417.599999999999</v>
       </c>
     </row>
-    <row r="147" spans="1:6" ht="11" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:4" ht="11" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A147" s="3" t="s">
         <v>3</v>
       </c>
@@ -2710,24 +2719,105 @@
         <v>69539.759999999995</v>
       </c>
     </row>
-    <row r="148" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A148" s="6"/>
-      <c r="B148" s="6"/>
-      <c r="C148" s="6"/>
-      <c r="D148" s="6"/>
-      <c r="E148">
-        <f>SUBTOTAL(9,D2:D147)</f>
-        <v>55853098.24000001</v>
-      </c>
-      <c r="F148">
-        <f>E148/1000</f>
-        <v>55853.098240000007</v>
+    <row r="148" spans="1:4" ht="11.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A148" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B148" t="s">
+        <v>56</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D148" s="4">
+        <v>42807.39</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" ht="11.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A149" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B149" t="s">
+        <v>57</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D149" s="4">
+        <v>39110.400000000001</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" ht="11.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A150" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B150" t="s">
+        <v>56</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D150" s="4">
+        <v>300813.45</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" ht="11.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A151" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B151" t="s">
+        <v>56</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D151" s="4">
+        <v>300813.45</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" ht="11.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A152" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B152" t="s">
+        <v>57</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D152" s="4">
+        <v>23512.799999999999</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" ht="11.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A153" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B153" t="s">
+        <v>60</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D153" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" ht="11.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A154" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B154" t="s">
+        <v>57</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D154" s="4">
+        <v>20253.599999999999</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A148:D148"/>
-  </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
   <pageSetup fitToHeight="0" pageOrder="overThenDown" orientation="portrait"/>
 </worksheet>

--- a/storage/app/PlanContract/36/2022/Планируемые договоры.xlsx
+++ b/storage/app/PlanContract/36/2022/Планируемые договоры.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aleksey.rakhmanov/Desktop/projects/pulsar_project/PulsarDataAggregation/storage/app/PlanContract/36/2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AE4C945-02FF-9F48-9106-E10D2842C556}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EBED35A-E074-884E-B68E-D17B234F2E82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3120" yWindow="880" windowWidth="31140" windowHeight="20800" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -655,14 +655,14 @@
   </sheetPr>
   <dimension ref="A1:D154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A135" workbookViewId="0">
-      <selection activeCell="D162" sqref="D162"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="11.5" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="56.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.25" style="1" customWidth="1"/>
+    <col min="1" max="1" width="54.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.25" style="1" customWidth="1"/>
     <col min="3" max="3" width="14.75" style="1" customWidth="1"/>
     <col min="4" max="4" width="17.5" style="1" customWidth="1"/>
   </cols>
